--- a/KQXS.xlsx
+++ b/KQXS.xlsx
@@ -32,409 +32,409 @@
     <t>Miền Bắc</t>
   </si>
   <si>
-    <t>Quảng Ninh</t>
+    <t>Nam Định</t>
   </si>
   <si>
     <t>Giải ĐB</t>
   </si>
   <si>
-    <t>17948</t>
-  </si>
-  <si>
-    <t>21-11-2023</t>
+    <t>08816</t>
+  </si>
+  <si>
+    <t>25-11-2023</t>
   </si>
   <si>
     <t>Giải nhất</t>
   </si>
   <si>
-    <t>51570</t>
+    <t>27324</t>
   </si>
   <si>
     <t>Giải nhì</t>
   </si>
   <si>
-    <t>91263</t>
-  </si>
-  <si>
-    <t>22132</t>
+    <t>11953</t>
+  </si>
+  <si>
+    <t>24697</t>
   </si>
   <si>
     <t>Giải ba</t>
   </si>
   <si>
-    <t>00523</t>
-  </si>
-  <si>
-    <t>03627</t>
-  </si>
-  <si>
-    <t>43013</t>
-  </si>
-  <si>
-    <t>06575</t>
-  </si>
-  <si>
-    <t>30407</t>
-  </si>
-  <si>
-    <t>70045</t>
+    <t>69110</t>
+  </si>
+  <si>
+    <t>04565</t>
+  </si>
+  <si>
+    <t>34068</t>
+  </si>
+  <si>
+    <t>51050</t>
+  </si>
+  <si>
+    <t>01507</t>
+  </si>
+  <si>
+    <t>34991</t>
   </si>
   <si>
     <t>Giải tư</t>
   </si>
   <si>
-    <t>4513</t>
-  </si>
-  <si>
-    <t>6199</t>
-  </si>
-  <si>
-    <t>8246</t>
-  </si>
-  <si>
-    <t>3789</t>
+    <t>6108</t>
+  </si>
+  <si>
+    <t>5491</t>
+  </si>
+  <si>
+    <t>7718</t>
+  </si>
+  <si>
+    <t>6815</t>
   </si>
   <si>
     <t>Giải năm</t>
   </si>
   <si>
-    <t>8601</t>
-  </si>
-  <si>
-    <t>7285</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>0145</t>
-  </si>
-  <si>
-    <t>0142</t>
-  </si>
-  <si>
-    <t>0079</t>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>9606</t>
+  </si>
+  <si>
+    <t>8760</t>
+  </si>
+  <si>
+    <t>7104</t>
+  </si>
+  <si>
+    <t>5179</t>
+  </si>
+  <si>
+    <t>0112</t>
   </si>
   <si>
     <t>Giải sáu</t>
   </si>
   <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>865</t>
+    <t>833</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>214</t>
   </si>
   <si>
     <t>Giải bảy</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Miền Trung</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>908857</t>
+  </si>
+  <si>
+    <t>01865</t>
+  </si>
+  <si>
+    <t>47874</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>06928</t>
+  </si>
+  <si>
+    <t>99399</t>
+  </si>
+  <si>
+    <t>97592</t>
+  </si>
+  <si>
+    <t>94374</t>
+  </si>
+  <si>
+    <t>26478</t>
+  </si>
+  <si>
+    <t>67109</t>
+  </si>
+  <si>
+    <t>77484</t>
+  </si>
+  <si>
+    <t>05416</t>
+  </si>
+  <si>
+    <t>4905</t>
+  </si>
+  <si>
+    <t>4142</t>
+  </si>
+  <si>
+    <t>7712</t>
+  </si>
+  <si>
+    <t>4437</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Giải tám</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Miền Trung</t>
-  </si>
-  <si>
-    <t>Đắc Lắc</t>
-  </si>
-  <si>
-    <t>546904</t>
-  </si>
-  <si>
-    <t>30932</t>
-  </si>
-  <si>
-    <t>84925</t>
-  </si>
-  <si>
-    <t>89414</t>
-  </si>
-  <si>
-    <t>91665</t>
-  </si>
-  <si>
-    <t>77731</t>
-  </si>
-  <si>
-    <t>62463</t>
-  </si>
-  <si>
-    <t>64278</t>
-  </si>
-  <si>
-    <t>37987</t>
-  </si>
-  <si>
-    <t>28600</t>
-  </si>
-  <si>
-    <t>49072</t>
-  </si>
-  <si>
-    <t>45761</t>
-  </si>
-  <si>
-    <t>4948</t>
-  </si>
-  <si>
-    <t>1479</t>
-  </si>
-  <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>6838</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>Giải tám</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Quảng Nam</t>
-  </si>
-  <si>
-    <t>069039</t>
-  </si>
-  <si>
-    <t>73592</t>
-  </si>
-  <si>
-    <t>99389</t>
-  </si>
-  <si>
-    <t>93365</t>
-  </si>
-  <si>
-    <t>86133</t>
-  </si>
-  <si>
-    <t>33360</t>
-  </si>
-  <si>
-    <t>42755</t>
-  </si>
-  <si>
-    <t>39675</t>
-  </si>
-  <si>
-    <t>59444</t>
-  </si>
-  <si>
-    <t>33686</t>
-  </si>
-  <si>
-    <t>22528</t>
-  </si>
-  <si>
-    <t>78559</t>
-  </si>
-  <si>
-    <t>5192</t>
-  </si>
-  <si>
-    <t>2862</t>
-  </si>
-  <si>
-    <t>3512</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>815234</t>
+  </si>
+  <si>
+    <t>51531</t>
+  </si>
+  <si>
+    <t>78898</t>
+  </si>
+  <si>
+    <t>92713</t>
+  </si>
+  <si>
+    <t>65037</t>
+  </si>
+  <si>
+    <t>40542</t>
+  </si>
+  <si>
+    <t>90464</t>
+  </si>
+  <si>
+    <t>76758</t>
+  </si>
+  <si>
+    <t>07275</t>
+  </si>
+  <si>
+    <t>47235</t>
+  </si>
+  <si>
+    <t>47936</t>
+  </si>
+  <si>
+    <t>63672</t>
+  </si>
+  <si>
+    <t>4196</t>
+  </si>
+  <si>
+    <t>0498</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>4182</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>Miền Nam</t>
   </si>
   <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>954344</t>
-  </si>
-  <si>
-    <t>43118</t>
-  </si>
-  <si>
-    <t>70040</t>
-  </si>
-  <si>
-    <t>94572</t>
-  </si>
-  <si>
-    <t>67915</t>
-  </si>
-  <si>
-    <t>47215</t>
-  </si>
-  <si>
-    <t>64080</t>
-  </si>
-  <si>
-    <t>69561</t>
-  </si>
-  <si>
-    <t>49246</t>
-  </si>
-  <si>
-    <t>51792</t>
-  </si>
-  <si>
-    <t>37691</t>
-  </si>
-  <si>
-    <t>96774</t>
-  </si>
-  <si>
-    <t>4243</t>
-  </si>
-  <si>
-    <t>3068</t>
-  </si>
-  <si>
-    <t>9853</t>
-  </si>
-  <si>
-    <t>7085</t>
-  </si>
-  <si>
-    <t>781</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Vũng Tàu</t>
-  </si>
-  <si>
-    <t>959823</t>
-  </si>
-  <si>
-    <t>23491</t>
-  </si>
-  <si>
-    <t>94154</t>
-  </si>
-  <si>
-    <t>12995</t>
-  </si>
-  <si>
-    <t>01038</t>
-  </si>
-  <si>
-    <t>11827</t>
-  </si>
-  <si>
-    <t>47396</t>
-  </si>
-  <si>
-    <t>38334</t>
-  </si>
-  <si>
-    <t>21668</t>
-  </si>
-  <si>
-    <t>06461</t>
-  </si>
-  <si>
-    <t>84644</t>
-  </si>
-  <si>
-    <t>74005</t>
-  </si>
-  <si>
-    <t>3759</t>
-  </si>
-  <si>
-    <t>6318</t>
-  </si>
-  <si>
-    <t>3540</t>
-  </si>
-  <si>
-    <t>4192</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Bạc Liêu</t>
-  </si>
-  <si>
-    <t>378081</t>
-  </si>
-  <si>
-    <t>96638</t>
-  </si>
-  <si>
-    <t>31245</t>
-  </si>
-  <si>
-    <t>23313</t>
-  </si>
-  <si>
-    <t>55070</t>
-  </si>
-  <si>
-    <t>28777</t>
-  </si>
-  <si>
-    <t>39401</t>
-  </si>
-  <si>
-    <t>25397</t>
-  </si>
-  <si>
-    <t>92542</t>
-  </si>
-  <si>
-    <t>80840</t>
-  </si>
-  <si>
-    <t>87671</t>
-  </si>
-  <si>
-    <t>72277</t>
-  </si>
-  <si>
-    <t>1536</t>
-  </si>
-  <si>
-    <t>7360</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>7097</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>187173</t>
+  </si>
+  <si>
+    <t>36162</t>
+  </si>
+  <si>
+    <t>71726</t>
+  </si>
+  <si>
+    <t>39837</t>
+  </si>
+  <si>
+    <t>54044</t>
+  </si>
+  <si>
+    <t>22968</t>
+  </si>
+  <si>
+    <t>18623</t>
+  </si>
+  <si>
+    <t>69934</t>
+  </si>
+  <si>
+    <t>10347</t>
+  </si>
+  <si>
+    <t>93727</t>
+  </si>
+  <si>
+    <t>71064</t>
+  </si>
+  <si>
+    <t>76824</t>
+  </si>
+  <si>
+    <t>7568</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>3443</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>736932</t>
+  </si>
+  <si>
+    <t>12463</t>
+  </si>
+  <si>
+    <t>26503</t>
+  </si>
+  <si>
+    <t>54079</t>
+  </si>
+  <si>
+    <t>16935</t>
+  </si>
+  <si>
+    <t>88769</t>
+  </si>
+  <si>
+    <t>57408</t>
+  </si>
+  <si>
+    <t>76707</t>
+  </si>
+  <si>
+    <t>71366</t>
+  </si>
+  <si>
+    <t>37210</t>
+  </si>
+  <si>
+    <t>61585</t>
+  </si>
+  <si>
+    <t>99950</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>3575</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>4916</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>504117</t>
+  </si>
+  <si>
+    <t>65906</t>
+  </si>
+  <si>
+    <t>09340</t>
+  </si>
+  <si>
+    <t>77713</t>
+  </si>
+  <si>
+    <t>93696</t>
+  </si>
+  <si>
+    <t>33117</t>
+  </si>
+  <si>
+    <t>92633</t>
+  </si>
+  <si>
+    <t>68878</t>
+  </si>
+  <si>
+    <t>21191</t>
+  </si>
+  <si>
+    <t>27938</t>
+  </si>
+  <si>
+    <t>55405</t>
+  </si>
+  <si>
+    <t>50182</t>
+  </si>
+  <si>
+    <t>6315</t>
+  </si>
+  <si>
+    <t>0642</t>
+  </si>
+  <si>
+    <t>7846</t>
+  </si>
+  <si>
+    <t>9829</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>

--- a/KQXS.xlsx
+++ b/KQXS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
   <si>
     <t>Region</t>
   </si>
@@ -32,409 +32,250 @@
     <t>Miền Bắc</t>
   </si>
   <si>
-    <t>Nam Định</t>
+    <t>Hải Phòng</t>
   </si>
   <si>
     <t>Giải ĐB</t>
   </si>
   <si>
-    <t>08816</t>
-  </si>
-  <si>
-    <t>25-11-2023</t>
+    <t>12301</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
   </si>
   <si>
     <t>Giải nhất</t>
   </si>
   <si>
-    <t>27324</t>
+    <t>78982</t>
   </si>
   <si>
     <t>Giải nhì</t>
   </si>
   <si>
-    <t>11953</t>
-  </si>
-  <si>
-    <t>24697</t>
+    <t>02630</t>
+  </si>
+  <si>
+    <t>94374</t>
   </si>
   <si>
     <t>Giải ba</t>
   </si>
   <si>
-    <t>69110</t>
-  </si>
-  <si>
-    <t>04565</t>
-  </si>
-  <si>
-    <t>34068</t>
-  </si>
-  <si>
-    <t>51050</t>
-  </si>
-  <si>
-    <t>01507</t>
-  </si>
-  <si>
-    <t>34991</t>
+    <t>19187</t>
+  </si>
+  <si>
+    <t>84917</t>
+  </si>
+  <si>
+    <t>12364</t>
+  </si>
+  <si>
+    <t>34641</t>
+  </si>
+  <si>
+    <t>35984</t>
+  </si>
+  <si>
+    <t>38101</t>
   </si>
   <si>
     <t>Giải tư</t>
   </si>
   <si>
-    <t>6108</t>
-  </si>
-  <si>
-    <t>5491</t>
-  </si>
-  <si>
-    <t>7718</t>
-  </si>
-  <si>
-    <t>6815</t>
+    <t>0620</t>
+  </si>
+  <si>
+    <t>6862</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>7618</t>
   </si>
   <si>
     <t>Giải năm</t>
   </si>
   <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>9606</t>
-  </si>
-  <si>
-    <t>8760</t>
-  </si>
-  <si>
-    <t>7104</t>
-  </si>
-  <si>
-    <t>5179</t>
-  </si>
-  <si>
-    <t>0112</t>
+    <t>0918</t>
+  </si>
+  <si>
+    <t>6025</t>
+  </si>
+  <si>
+    <t>9110</t>
+  </si>
+  <si>
+    <t>3749</t>
+  </si>
+  <si>
+    <t>0894</t>
+  </si>
+  <si>
+    <t>8079</t>
   </si>
   <si>
     <t>Giải sáu</t>
   </si>
   <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>214</t>
+    <t>074</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>042</t>
   </si>
   <si>
     <t>Giải bảy</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>Miền Trung</t>
   </si>
   <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>908857</t>
-  </si>
-  <si>
-    <t>01865</t>
-  </si>
-  <si>
-    <t>47874</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>06928</t>
-  </si>
-  <si>
-    <t>99399</t>
-  </si>
-  <si>
-    <t>97592</t>
-  </si>
-  <si>
-    <t>94374</t>
-  </si>
-  <si>
-    <t>26478</t>
-  </si>
-  <si>
-    <t>67109</t>
-  </si>
-  <si>
-    <t>77484</t>
-  </si>
-  <si>
-    <t>05416</t>
-  </si>
-  <si>
-    <t>4905</t>
-  </si>
-  <si>
-    <t>4142</t>
-  </si>
-  <si>
-    <t>7712</t>
-  </si>
-  <si>
-    <t>4437</t>
-  </si>
-  <si>
-    <t>052</t>
+    <t>Gia Lai</t>
   </si>
   <si>
     <t>Giải tám</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>815234</t>
-  </si>
-  <si>
-    <t>51531</t>
-  </si>
-  <si>
-    <t>78898</t>
-  </si>
-  <si>
-    <t>92713</t>
-  </si>
-  <si>
-    <t>65037</t>
-  </si>
-  <si>
-    <t>40542</t>
-  </si>
-  <si>
-    <t>90464</t>
-  </si>
-  <si>
-    <t>76758</t>
-  </si>
-  <si>
-    <t>07275</t>
-  </si>
-  <si>
-    <t>47235</t>
-  </si>
-  <si>
-    <t>47936</t>
-  </si>
-  <si>
-    <t>63672</t>
-  </si>
-  <si>
-    <t>4196</t>
-  </si>
-  <si>
-    <t>0498</t>
-  </si>
-  <si>
-    <t>2498</t>
-  </si>
-  <si>
-    <t>4182</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>50</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>1-12-2023</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>9746</t>
+  </si>
+  <si>
+    <t>3315</t>
+  </si>
+  <si>
+    <t>8741</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>14869</t>
+  </si>
+  <si>
+    <t>69329</t>
+  </si>
+  <si>
+    <t>79214</t>
+  </si>
+  <si>
+    <t>08566</t>
+  </si>
+  <si>
+    <t>71701</t>
+  </si>
+  <si>
+    <t>69303</t>
+  </si>
+  <si>
+    <t>90652</t>
+  </si>
+  <si>
+    <t>49124</t>
+  </si>
+  <si>
+    <t>06927</t>
+  </si>
+  <si>
+    <t>07057</t>
+  </si>
+  <si>
+    <t>71307</t>
+  </si>
+  <si>
+    <t>331504</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
   </si>
   <si>
     <t>Miền Nam</t>
   </si>
   <si>
-    <t>TP.HCM</t>
-  </si>
-  <si>
-    <t>187173</t>
-  </si>
-  <si>
-    <t>36162</t>
-  </si>
-  <si>
-    <t>71726</t>
-  </si>
-  <si>
-    <t>39837</t>
-  </si>
-  <si>
-    <t>54044</t>
-  </si>
-  <si>
-    <t>22968</t>
-  </si>
-  <si>
-    <t>18623</t>
-  </si>
-  <si>
-    <t>69934</t>
-  </si>
-  <si>
-    <t>10347</t>
-  </si>
-  <si>
-    <t>93727</t>
-  </si>
-  <si>
-    <t>71064</t>
-  </si>
-  <si>
-    <t>76824</t>
-  </si>
-  <si>
-    <t>7568</t>
-  </si>
-  <si>
-    <t>2249</t>
-  </si>
-  <si>
-    <t>3443</t>
-  </si>
-  <si>
-    <t>0232</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Long An</t>
-  </si>
-  <si>
-    <t>736932</t>
-  </si>
-  <si>
-    <t>12463</t>
-  </si>
-  <si>
-    <t>26503</t>
-  </si>
-  <si>
-    <t>54079</t>
-  </si>
-  <si>
-    <t>16935</t>
-  </si>
-  <si>
-    <t>88769</t>
-  </si>
-  <si>
-    <t>57408</t>
-  </si>
-  <si>
-    <t>76707</t>
-  </si>
-  <si>
-    <t>71366</t>
-  </si>
-  <si>
-    <t>37210</t>
-  </si>
-  <si>
-    <t>61585</t>
-  </si>
-  <si>
-    <t>99950</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>3575</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>4916</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Bình Phước</t>
-  </si>
-  <si>
-    <t>504117</t>
-  </si>
-  <si>
-    <t>65906</t>
-  </si>
-  <si>
-    <t>09340</t>
-  </si>
-  <si>
-    <t>77713</t>
-  </si>
-  <si>
-    <t>93696</t>
-  </si>
-  <si>
-    <t>33117</t>
-  </si>
-  <si>
-    <t>92633</t>
-  </si>
-  <si>
-    <t>68878</t>
-  </si>
-  <si>
-    <t>21191</t>
-  </si>
-  <si>
-    <t>27938</t>
-  </si>
-  <si>
-    <t>55405</t>
-  </si>
-  <si>
-    <t>50182</t>
-  </si>
-  <si>
-    <t>6315</t>
-  </si>
-  <si>
-    <t>0642</t>
-  </si>
-  <si>
-    <t>7846</t>
-  </si>
-  <si>
-    <t>9829</t>
-  </si>
-  <si>
-    <t>869</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>7349</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>90144</t>
+  </si>
+  <si>
+    <t>01237</t>
+  </si>
+  <si>
+    <t>61395</t>
+  </si>
+  <si>
+    <t>59414</t>
+  </si>
+  <si>
+    <t>84550</t>
+  </si>
+  <si>
+    <t>47718</t>
+  </si>
+  <si>
+    <t>87640</t>
+  </si>
+  <si>
+    <t>21416</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>38187</t>
+  </si>
+  <si>
+    <t>62938</t>
+  </si>
+  <si>
+    <t>010787</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
   </si>
 </sst>
 </file>
@@ -969,13 +810,13 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -986,13 +827,13 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1003,13 +844,13 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1020,13 +861,13 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -1037,13 +878,13 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -1054,13 +895,13 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
@@ -1074,10 +915,10 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -1091,10 +932,10 @@
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
@@ -1108,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
@@ -1125,10 +966,10 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39">
@@ -1142,10 +983,10 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -1159,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -1173,13 +1014,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
@@ -1190,13 +1031,13 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1207,13 +1048,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1224,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1241,13 +1082,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -1258,13 +1099,13 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -1272,16 +1113,16 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
@@ -1289,16 +1130,16 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -1306,16 +1147,16 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
@@ -1323,16 +1164,16 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
@@ -1340,16 +1181,16 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -1357,16 +1198,16 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
@@ -1374,16 +1215,16 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -1391,16 +1232,16 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
@@ -1408,16 +1249,16 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56">
@@ -1425,16 +1266,16 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57">
@@ -1442,16 +1283,16 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58">
@@ -1459,16 +1300,16 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59">
@@ -1476,16 +1317,16 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1334,16 @@
         <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -1510,16 +1351,16 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -1527,16 +1368,16 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
@@ -1544,16 +1385,16 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
@@ -1561,934 +1402,2464 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" t="s">
-        <v>82</v>
-      </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" t="s">
-        <v>100</v>
-      </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" t="s">
-        <v>101</v>
-      </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
         <v>83</v>
       </c>
-      <c r="B98" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" t="s">
-        <v>119</v>
-      </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
         <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
         <v>83</v>
       </c>
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" t="s">
-        <v>138</v>
-      </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E118" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>58</v>
+      </c>
+      <c r="E130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>61</v>
+      </c>
+      <c r="E133" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>62</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>56</v>
+      </c>
+      <c r="E146" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>58</v>
+      </c>
+      <c r="E148" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E150" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>61</v>
+      </c>
+      <c r="E151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E152" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" t="s">
+        <v>68</v>
+      </c>
+      <c r="E155" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>70</v>
+      </c>
+      <c r="E157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" t="s">
+        <v>67</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>73</v>
+      </c>
+      <c r="E160" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" t="s">
+        <v>67</v>
+      </c>
+      <c r="C161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>74</v>
+      </c>
+      <c r="E161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" t="s">
+        <v>67</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>75</v>
+      </c>
+      <c r="E162" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>66</v>
+      </c>
+      <c r="B164" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>77</v>
+      </c>
+      <c r="E164" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>78</v>
+      </c>
+      <c r="E165" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" t="s">
+        <v>67</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" t="s">
+        <v>67</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>81</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" t="s">
         <v>83</v>
       </c>
-      <c r="B118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C118" t="s">
-        <v>62</v>
-      </c>
-      <c r="D118" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
+      <c r="E170" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" t="s">
+        <v>67</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>84</v>
+      </c>
+      <c r="E171" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" t="s">
+        <v>67</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>85</v>
+      </c>
+      <c r="E172" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>68</v>
+      </c>
+      <c r="E173" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" t="s">
+        <v>86</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>71</v>
+      </c>
+      <c r="E176" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" t="s">
+        <v>86</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" t="s">
+        <v>86</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" t="s">
+        <v>86</v>
+      </c>
+      <c r="C179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" t="s">
+        <v>74</v>
+      </c>
+      <c r="E179" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s">
+        <v>75</v>
+      </c>
+      <c r="E180" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s">
+        <v>76</v>
+      </c>
+      <c r="E181" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>86</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>77</v>
+      </c>
+      <c r="E182" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" t="s">
+        <v>86</v>
+      </c>
+      <c r="C183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" t="s">
+        <v>78</v>
+      </c>
+      <c r="E183" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
+        <v>79</v>
+      </c>
+      <c r="E184" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" t="s">
+        <v>80</v>
+      </c>
+      <c r="E185" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" t="s">
+        <v>86</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>81</v>
+      </c>
+      <c r="E186" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>66</v>
+      </c>
+      <c r="B188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>83</v>
+      </c>
+      <c r="E188" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>84</v>
+      </c>
+      <c r="E189" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>85</v>
+      </c>
+      <c r="E190" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>66</v>
+      </c>
+      <c r="B191" t="s">
+        <v>87</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" t="s">
+        <v>87</v>
+      </c>
+      <c r="C192" t="s">
+        <v>38</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" t="s">
+        <v>70</v>
+      </c>
+      <c r="E193" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>66</v>
+      </c>
+      <c r="B194" t="s">
+        <v>87</v>
+      </c>
+      <c r="C194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" t="s">
+        <v>71</v>
+      </c>
+      <c r="E194" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" t="s">
+        <v>73</v>
+      </c>
+      <c r="E196" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197" t="s">
+        <v>87</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" t="s">
+        <v>74</v>
+      </c>
+      <c r="E197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s">
+        <v>75</v>
+      </c>
+      <c r="E198" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
+        <v>87</v>
+      </c>
+      <c r="C199" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" t="s">
+        <v>76</v>
+      </c>
+      <c r="E199" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" t="s">
+        <v>77</v>
+      </c>
+      <c r="E200" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" t="s">
+        <v>87</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>78</v>
+      </c>
+      <c r="E201" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
+        <v>79</v>
+      </c>
+      <c r="E202" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>66</v>
+      </c>
+      <c r="B203" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" t="s">
+        <v>80</v>
+      </c>
+      <c r="E203" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>66</v>
+      </c>
+      <c r="B204" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>81</v>
+      </c>
+      <c r="E204" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" t="s">
+        <v>87</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>82</v>
+      </c>
+      <c r="E205" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>66</v>
+      </c>
+      <c r="B206" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>83</v>
+      </c>
+      <c r="E206" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>84</v>
+      </c>
+      <c r="E207" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" t="s">
+        <v>87</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>85</v>
+      </c>
+      <c r="E208" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/KQXS.xlsx
+++ b/KQXS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="90">
   <si>
     <t>Region</t>
   </si>
@@ -32,250 +32,256 @@
     <t>Miền Bắc</t>
   </si>
   <si>
-    <t>Hải Phòng</t>
+    <t>Nam Định</t>
   </si>
   <si>
     <t>Giải ĐB</t>
   </si>
   <si>
-    <t>12301</t>
-  </si>
-  <si>
-    <t>01-12-2023</t>
+    <t>87485</t>
+  </si>
+  <si>
+    <t>02-12-2023</t>
   </si>
   <si>
     <t>Giải nhất</t>
   </si>
   <si>
-    <t>78982</t>
+    <t>17336</t>
   </si>
   <si>
     <t>Giải nhì</t>
   </si>
   <si>
-    <t>02630</t>
-  </si>
-  <si>
-    <t>94374</t>
+    <t>51133</t>
+  </si>
+  <si>
+    <t>12554</t>
   </si>
   <si>
     <t>Giải ba</t>
   </si>
   <si>
-    <t>19187</t>
-  </si>
-  <si>
-    <t>84917</t>
-  </si>
-  <si>
-    <t>12364</t>
-  </si>
-  <si>
-    <t>34641</t>
-  </si>
-  <si>
-    <t>35984</t>
-  </si>
-  <si>
-    <t>38101</t>
+    <t>07135</t>
+  </si>
+  <si>
+    <t>21522</t>
+  </si>
+  <si>
+    <t>53104</t>
+  </si>
+  <si>
+    <t>80826</t>
+  </si>
+  <si>
+    <t>94365</t>
+  </si>
+  <si>
+    <t>61619</t>
   </si>
   <si>
     <t>Giải tư</t>
   </si>
   <si>
-    <t>0620</t>
-  </si>
-  <si>
-    <t>6862</t>
-  </si>
-  <si>
-    <t>5300</t>
-  </si>
-  <si>
-    <t>7618</t>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>4461</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>3977</t>
   </si>
   <si>
     <t>Giải năm</t>
   </si>
   <si>
-    <t>0918</t>
-  </si>
-  <si>
-    <t>6025</t>
-  </si>
-  <si>
-    <t>9110</t>
-  </si>
-  <si>
-    <t>3749</t>
-  </si>
-  <si>
-    <t>0894</t>
-  </si>
-  <si>
-    <t>8079</t>
+    <t>7172</t>
+  </si>
+  <si>
+    <t>5165</t>
+  </si>
+  <si>
+    <t>4923</t>
+  </si>
+  <si>
+    <t>7678</t>
+  </si>
+  <si>
+    <t>2530</t>
+  </si>
+  <si>
+    <t>2804</t>
   </si>
   <si>
     <t>Giải sáu</t>
   </si>
   <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>042</t>
+    <t>427</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>452</t>
   </si>
   <si>
     <t>Giải bảy</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Miền Trung</t>
   </si>
   <si>
-    <t>Gia Lai</t>
+    <t>Đà Nẵng</t>
   </si>
   <si>
     <t>Giải tám</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>1-12-2023</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>9746</t>
-  </si>
-  <si>
-    <t>3315</t>
-  </si>
-  <si>
-    <t>8741</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>14869</t>
-  </si>
-  <si>
-    <t>69329</t>
-  </si>
-  <si>
-    <t>79214</t>
-  </si>
-  <si>
-    <t>08566</t>
-  </si>
-  <si>
-    <t>71701</t>
-  </si>
-  <si>
-    <t>69303</t>
-  </si>
-  <si>
-    <t>90652</t>
-  </si>
-  <si>
-    <t>49124</t>
-  </si>
-  <si>
-    <t>06927</t>
-  </si>
-  <si>
-    <t>07057</t>
-  </si>
-  <si>
-    <t>71307</t>
-  </si>
-  <si>
-    <t>331504</t>
-  </si>
-  <si>
-    <t>Ninh Thuận</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2-12-2023</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>6415</t>
+  </si>
+  <si>
+    <t>8312</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>8226</t>
+  </si>
+  <si>
+    <t>99486</t>
+  </si>
+  <si>
+    <t>16835</t>
+  </si>
+  <si>
+    <t>88803</t>
+  </si>
+  <si>
+    <t>85140</t>
+  </si>
+  <si>
+    <t>83547</t>
+  </si>
+  <si>
+    <t>77624</t>
+  </si>
+  <si>
+    <t>29644</t>
+  </si>
+  <si>
+    <t>98517</t>
+  </si>
+  <si>
+    <t>65384</t>
+  </si>
+  <si>
+    <t>78363</t>
+  </si>
+  <si>
+    <t>58800</t>
+  </si>
+  <si>
+    <t>014567</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Đắc Nông</t>
   </si>
   <si>
     <t>Miền Nam</t>
   </si>
   <si>
-    <t>Vĩnh Long</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>1931</t>
-  </si>
-  <si>
-    <t>2872</t>
-  </si>
-  <si>
-    <t>7349</t>
-  </si>
-  <si>
-    <t>1726</t>
-  </si>
-  <si>
-    <t>90144</t>
-  </si>
-  <si>
-    <t>01237</t>
-  </si>
-  <si>
-    <t>61395</t>
-  </si>
-  <si>
-    <t>59414</t>
-  </si>
-  <si>
-    <t>84550</t>
-  </si>
-  <si>
-    <t>47718</t>
-  </si>
-  <si>
-    <t>87640</t>
-  </si>
-  <si>
-    <t>21416</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>38187</t>
-  </si>
-  <si>
-    <t>62938</t>
-  </si>
-  <si>
-    <t>010787</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>Trà Vinh</t>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>7319</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>9699</t>
+  </si>
+  <si>
+    <t>57768</t>
+  </si>
+  <si>
+    <t>20913</t>
+  </si>
+  <si>
+    <t>27895</t>
+  </si>
+  <si>
+    <t>78338</t>
+  </si>
+  <si>
+    <t>14285</t>
+  </si>
+  <si>
+    <t>84330</t>
+  </si>
+  <si>
+    <t>79303</t>
+  </si>
+  <si>
+    <t>01340</t>
+  </si>
+  <si>
+    <t>46518</t>
+  </si>
+  <si>
+    <t>51473</t>
+  </si>
+  <si>
+    <t>08556</t>
+  </si>
+  <si>
+    <t>425659</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Bình Phước</t>
+  </si>
+  <si>
+    <t>Hậu Giang</t>
   </si>
 </sst>
 </file>
@@ -1416,16 +1422,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
         <v>47</v>
@@ -1433,16 +1439,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
       </c>
       <c r="C66" t="s">
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
         <v>47</v>
@@ -1450,16 +1456,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
         <v>47</v>
@@ -1467,16 +1473,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" t="s">
         <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
         <v>47</v>
@@ -1484,16 +1490,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" t="s">
         <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
         <v>47</v>
@@ -1501,16 +1507,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
         <v>66</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
         <v>47</v>
@@ -1518,16 +1524,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
@@ -1535,16 +1541,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
         <v>66</v>
       </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
         <v>47</v>
@@ -1552,16 +1558,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
         <v>66</v>
       </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
         <v>47</v>
@@ -1569,16 +1575,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
         <v>66</v>
       </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
         <v>47</v>
@@ -1586,16 +1592,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
         <v>47</v>
@@ -1603,16 +1609,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
         <v>66</v>
       </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
       <c r="C76" t="s">
         <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
         <v>47</v>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
         <v>66</v>
       </c>
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
       <c r="C77" t="s">
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -1637,16 +1643,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
         <v>66</v>
-      </c>
-      <c r="B78" t="s">
-        <v>67</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
         <v>47</v>
@@ -1654,16 +1660,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" t="s">
         <v>66</v>
-      </c>
-      <c r="B79" t="s">
-        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
         <v>47</v>
@@ -1671,16 +1677,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
         <v>66</v>
-      </c>
-      <c r="B80" t="s">
-        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
         <v>47</v>
@@ -1688,16 +1694,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
         <v>66</v>
-      </c>
-      <c r="B81" t="s">
-        <v>67</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
         <v>47</v>
@@ -1705,16 +1711,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
         <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>67</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
         <v>47</v>
@@ -1722,16 +1728,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
         <v>47</v>
@@ -1739,16 +1745,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
         <v>47</v>
@@ -1756,16 +1762,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E85" t="s">
         <v>47</v>
@@ -1773,16 +1779,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
         <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E86" t="s">
         <v>47</v>
@@ -1790,16 +1796,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
         <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
         <v>47</v>
@@ -1807,16 +1813,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E88" t="s">
         <v>47</v>
@@ -1824,16 +1830,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E89" t="s">
         <v>47</v>
@@ -1841,16 +1847,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
         <v>47</v>
@@ -1858,16 +1864,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E91" t="s">
         <v>47</v>
@@ -1875,16 +1881,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E92" t="s">
         <v>47</v>
@@ -1892,16 +1898,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E93" t="s">
         <v>47</v>
@@ -1909,16 +1915,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E94" t="s">
         <v>47</v>
@@ -1926,16 +1932,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E95" t="s">
         <v>47</v>
@@ -1943,16 +1949,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E96" t="s">
         <v>47</v>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
         <v>47</v>
@@ -1977,16 +1983,16 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E98" t="s">
         <v>47</v>
@@ -1994,16 +2000,16 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E99" t="s">
         <v>47</v>
@@ -2011,16 +2017,16 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E100" t="s">
         <v>47</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
         <v>87</v>
@@ -2037,7 +2043,7 @@
         <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E101" t="s">
         <v>47</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B102" t="s">
         <v>87</v>
@@ -2054,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
         <v>47</v>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
         <v>87</v>
@@ -2071,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
         <v>47</v>
@@ -2079,7 +2085,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
@@ -2088,7 +2094,7 @@
         <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
         <v>47</v>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B105" t="s">
         <v>87</v>
@@ -2105,7 +2111,7 @@
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
         <v>47</v>
@@ -2113,7 +2119,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
         <v>87</v>
@@ -2122,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E106" t="s">
         <v>47</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
         <v>87</v>
@@ -2139,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E107" t="s">
         <v>47</v>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
         <v>87</v>
@@ -2156,7 +2162,7 @@
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E108" t="s">
         <v>47</v>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
         <v>87</v>
@@ -2173,7 +2179,7 @@
         <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
         <v>47</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
         <v>87</v>
@@ -2190,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E110" t="s">
         <v>47</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
         <v>87</v>
@@ -2207,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="D111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E111" t="s">
         <v>47</v>
@@ -2215,7 +2221,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
         <v>87</v>
@@ -2224,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
         <v>47</v>
@@ -2232,7 +2238,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
         <v>87</v>
@@ -2241,7 +2247,7 @@
         <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E113" t="s">
         <v>47</v>
@@ -2249,7 +2255,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
         <v>87</v>
@@ -2258,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E114" t="s">
         <v>47</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
         <v>87</v>
@@ -2275,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E115" t="s">
         <v>47</v>
@@ -2283,7 +2289,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B116" t="s">
         <v>87</v>
@@ -2292,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E116" t="s">
         <v>47</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
         <v>87</v>
@@ -2309,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E117" t="s">
         <v>47</v>
@@ -2317,7 +2323,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B118" t="s">
         <v>87</v>
@@ -2326,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E118" t="s">
         <v>47</v>
@@ -2334,16 +2340,16 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C119" t="s">
         <v>45</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E119" t="s">
         <v>47</v>
@@ -2351,16 +2357,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C120" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
         <v>47</v>
@@ -2368,16 +2374,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E121" t="s">
         <v>47</v>
@@ -2385,16 +2391,16 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E122" t="s">
         <v>47</v>
@@ -2402,16 +2408,16 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E123" t="s">
         <v>47</v>
@@ -2419,16 +2425,16 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E124" t="s">
         <v>47</v>
@@ -2436,16 +2442,16 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
         <v>47</v>
@@ -2453,16 +2459,16 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
         <v>47</v>
@@ -2470,16 +2476,16 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E127" t="s">
         <v>47</v>
@@ -2487,16 +2493,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E128" t="s">
         <v>47</v>
@@ -2504,16 +2510,16 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E129" t="s">
         <v>47</v>
@@ -2521,16 +2527,16 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
         <v>47</v>
@@ -2538,16 +2544,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
         <v>47</v>
@@ -2555,16 +2561,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E132" t="s">
         <v>47</v>
@@ -2572,16 +2578,16 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E133" t="s">
         <v>47</v>
@@ -2589,16 +2595,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E134" t="s">
         <v>47</v>
@@ -2606,16 +2612,16 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
         <v>47</v>
@@ -2623,16 +2629,16 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E136" t="s">
         <v>47</v>
@@ -2640,16 +2646,16 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C137" t="s">
         <v>45</v>
       </c>
       <c r="D137" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E137" t="s">
         <v>47</v>
@@ -2657,16 +2663,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C138" t="s">
         <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
         <v>47</v>
@@ -2674,16 +2680,16 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C139" t="s">
         <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E139" t="s">
         <v>47</v>
@@ -2691,16 +2697,16 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C140" t="s">
         <v>34</v>
       </c>
       <c r="D140" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E140" t="s">
         <v>47</v>
@@ -2708,16 +2714,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E141" t="s">
         <v>47</v>
@@ -2725,16 +2731,16 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E142" t="s">
         <v>47</v>
@@ -2742,16 +2748,16 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E143" t="s">
         <v>47</v>
@@ -2759,16 +2765,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B144" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E144" t="s">
         <v>47</v>
@@ -2776,16 +2782,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E145" t="s">
         <v>47</v>
@@ -2793,16 +2799,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E146" t="s">
         <v>47</v>
@@ -2810,16 +2816,16 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E147" t="s">
         <v>47</v>
@@ -2827,16 +2833,16 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E148" t="s">
         <v>47</v>
@@ -2844,16 +2850,16 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E149" t="s">
         <v>47</v>
@@ -2861,16 +2867,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E150" t="s">
         <v>47</v>
@@ -2878,16 +2884,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E151" t="s">
         <v>47</v>
@@ -2895,16 +2901,16 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E152" t="s">
         <v>47</v>
@@ -2912,16 +2918,16 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C153" t="s">
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E153" t="s">
         <v>47</v>
@@ -2929,16 +2935,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E154" t="s">
         <v>47</v>
@@ -2946,16 +2952,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
         <v>45</v>
       </c>
       <c r="D155" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E155" t="s">
         <v>47</v>
@@ -2963,16 +2969,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C156" t="s">
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E156" t="s">
         <v>47</v>
@@ -2980,16 +2986,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B157" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
       </c>
       <c r="D157" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E157" t="s">
         <v>47</v>
@@ -2997,16 +3003,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E158" t="s">
         <v>47</v>
@@ -3014,16 +3020,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E159" t="s">
         <v>47</v>
@@ -3031,16 +3037,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E160" t="s">
         <v>47</v>
@@ -3048,16 +3054,16 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E161" t="s">
         <v>47</v>
@@ -3065,16 +3071,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E162" t="s">
         <v>47</v>
@@ -3082,16 +3088,16 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E163" t="s">
         <v>47</v>
@@ -3099,16 +3105,16 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E164" t="s">
         <v>47</v>
@@ -3116,16 +3122,16 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E165" t="s">
         <v>47</v>
@@ -3133,16 +3139,16 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E166" t="s">
         <v>47</v>
@@ -3150,16 +3156,16 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
         <v>22</v>
       </c>
       <c r="D167" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E167" t="s">
         <v>47</v>
@@ -3167,16 +3173,16 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E168" t="s">
         <v>47</v>
@@ -3184,16 +3190,16 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E169" t="s">
         <v>47</v>
@@ -3201,16 +3207,16 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E170" t="s">
         <v>47</v>
@@ -3218,16 +3224,16 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B171" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E171" t="s">
         <v>47</v>
@@ -3235,16 +3241,16 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B172" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E172" t="s">
         <v>47</v>
@@ -3252,16 +3258,16 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C173" t="s">
         <v>45</v>
       </c>
       <c r="D173" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E173" t="s">
         <v>47</v>
@@ -3269,16 +3275,16 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B174" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C174" t="s">
         <v>38</v>
       </c>
       <c r="D174" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E174" t="s">
         <v>47</v>
@@ -3286,16 +3292,16 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B175" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C175" t="s">
         <v>34</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E175" t="s">
         <v>47</v>
@@ -3303,16 +3309,16 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B176" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C176" t="s">
         <v>34</v>
       </c>
       <c r="D176" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E176" t="s">
         <v>47</v>
@@ -3320,16 +3326,16 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B177" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C177" t="s">
         <v>34</v>
       </c>
       <c r="D177" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E177" t="s">
         <v>47</v>
@@ -3337,16 +3343,16 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B178" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E178" t="s">
         <v>47</v>
@@ -3354,16 +3360,16 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B179" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s">
         <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E179" t="s">
         <v>47</v>
@@ -3371,16 +3377,16 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B180" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C180" t="s">
         <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E180" t="s">
         <v>47</v>
@@ -3388,16 +3394,16 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B181" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C181" t="s">
         <v>22</v>
       </c>
       <c r="D181" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E181" t="s">
         <v>47</v>
@@ -3405,16 +3411,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B182" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
         <v>22</v>
       </c>
       <c r="D182" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
@@ -3422,16 +3428,16 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B183" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C183" t="s">
         <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E183" t="s">
         <v>47</v>
@@ -3439,16 +3445,16 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
       </c>
       <c r="D184" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E184" t="s">
         <v>47</v>
@@ -3456,16 +3462,16 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E185" t="s">
         <v>47</v>
@@ -3473,16 +3479,16 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B186" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E186" t="s">
         <v>47</v>
@@ -3490,16 +3496,16 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B187" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E187" t="s">
         <v>47</v>
@@ -3507,16 +3513,16 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B188" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E188" t="s">
         <v>47</v>
@@ -3524,16 +3530,16 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E189" t="s">
         <v>47</v>
@@ -3541,16 +3547,16 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E190" t="s">
         <v>47</v>
@@ -3558,16 +3564,16 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" t="s">
         <v>66</v>
-      </c>
-      <c r="B191" t="s">
-        <v>87</v>
       </c>
       <c r="C191" t="s">
         <v>45</v>
       </c>
       <c r="D191" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E191" t="s">
         <v>47</v>
@@ -3575,16 +3581,16 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" t="s">
         <v>66</v>
-      </c>
-      <c r="B192" t="s">
-        <v>87</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
       </c>
       <c r="D192" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E192" t="s">
         <v>47</v>
@@ -3592,16 +3598,16 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>43</v>
+      </c>
+      <c r="B193" t="s">
         <v>66</v>
-      </c>
-      <c r="B193" t="s">
-        <v>87</v>
       </c>
       <c r="C193" t="s">
         <v>34</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E193" t="s">
         <v>47</v>
@@ -3609,16 +3615,16 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>43</v>
+      </c>
+      <c r="B194" t="s">
         <v>66</v>
-      </c>
-      <c r="B194" t="s">
-        <v>87</v>
       </c>
       <c r="C194" t="s">
         <v>34</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E194" t="s">
         <v>47</v>
@@ -3626,16 +3632,16 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195" t="s">
         <v>66</v>
-      </c>
-      <c r="B195" t="s">
-        <v>87</v>
       </c>
       <c r="C195" t="s">
         <v>34</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E195" t="s">
         <v>47</v>
@@ -3643,16 +3649,16 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" t="s">
         <v>66</v>
-      </c>
-      <c r="B196" t="s">
-        <v>87</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
       </c>
       <c r="D196" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E196" t="s">
         <v>47</v>
@@ -3660,16 +3666,16 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197" t="s">
         <v>66</v>
       </c>
-      <c r="B197" t="s">
-        <v>87</v>
-      </c>
       <c r="C197" t="s">
         <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E197" t="s">
         <v>47</v>
@@ -3677,16 +3683,16 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>43</v>
+      </c>
+      <c r="B198" t="s">
         <v>66</v>
       </c>
-      <c r="B198" t="s">
-        <v>87</v>
-      </c>
       <c r="C198" t="s">
         <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E198" t="s">
         <v>47</v>
@@ -3694,16 +3700,16 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199" t="s">
         <v>66</v>
       </c>
-      <c r="B199" t="s">
-        <v>87</v>
-      </c>
       <c r="C199" t="s">
         <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E199" t="s">
         <v>47</v>
@@ -3711,16 +3717,16 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200" t="s">
         <v>66</v>
       </c>
-      <c r="B200" t="s">
-        <v>87</v>
-      </c>
       <c r="C200" t="s">
         <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E200" t="s">
         <v>47</v>
@@ -3728,16 +3734,16 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201" t="s">
         <v>66</v>
       </c>
-      <c r="B201" t="s">
-        <v>87</v>
-      </c>
       <c r="C201" t="s">
         <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E201" t="s">
         <v>47</v>
@@ -3745,16 +3751,16 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>43</v>
+      </c>
+      <c r="B202" t="s">
         <v>66</v>
       </c>
-      <c r="B202" t="s">
-        <v>87</v>
-      </c>
       <c r="C202" t="s">
         <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E202" t="s">
         <v>47</v>
@@ -3762,16 +3768,16 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" t="s">
         <v>66</v>
       </c>
-      <c r="B203" t="s">
-        <v>87</v>
-      </c>
       <c r="C203" t="s">
         <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E203" t="s">
         <v>47</v>
@@ -3779,16 +3785,16 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>43</v>
+      </c>
+      <c r="B204" t="s">
         <v>66</v>
-      </c>
-      <c r="B204" t="s">
-        <v>87</v>
       </c>
       <c r="C204" t="s">
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E204" t="s">
         <v>47</v>
@@ -3796,16 +3802,16 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>43</v>
+      </c>
+      <c r="B205" t="s">
         <v>66</v>
-      </c>
-      <c r="B205" t="s">
-        <v>87</v>
       </c>
       <c r="C205" t="s">
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E205" t="s">
         <v>47</v>
@@ -3813,16 +3819,16 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>43</v>
+      </c>
+      <c r="B206" t="s">
         <v>66</v>
-      </c>
-      <c r="B206" t="s">
-        <v>87</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E206" t="s">
         <v>47</v>
@@ -3830,16 +3836,16 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>43</v>
+      </c>
+      <c r="B207" t="s">
         <v>66</v>
-      </c>
-      <c r="B207" t="s">
-        <v>87</v>
       </c>
       <c r="C207" t="s">
         <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E207" t="s">
         <v>47</v>
@@ -3847,18 +3853,1242 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" t="s">
         <v>66</v>
-      </c>
-      <c r="B208" t="s">
-        <v>87</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" t="s">
+        <v>68</v>
+      </c>
+      <c r="C209" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" t="s">
+        <v>68</v>
+      </c>
+      <c r="C210" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" t="s">
+        <v>70</v>
+      </c>
+      <c r="E210" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" t="s">
+        <v>68</v>
+      </c>
+      <c r="C211" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E211" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>67</v>
+      </c>
+      <c r="B212" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" t="s">
+        <v>72</v>
+      </c>
+      <c r="E212" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>67</v>
+      </c>
+      <c r="B213" t="s">
+        <v>68</v>
+      </c>
+      <c r="C213" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213" t="s">
+        <v>73</v>
+      </c>
+      <c r="E213" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" t="s">
+        <v>74</v>
+      </c>
+      <c r="E214" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>67</v>
+      </c>
+      <c r="B215" t="s">
+        <v>68</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>75</v>
+      </c>
+      <c r="E215" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>67</v>
+      </c>
+      <c r="B216" t="s">
+        <v>68</v>
+      </c>
+      <c r="C216" t="s">
+        <v>22</v>
+      </c>
+      <c r="D216" t="s">
+        <v>76</v>
+      </c>
+      <c r="E216" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>67</v>
+      </c>
+      <c r="B217" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217" t="s">
+        <v>77</v>
+      </c>
+      <c r="E217" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>67</v>
+      </c>
+      <c r="B218" t="s">
+        <v>68</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
+        <v>78</v>
+      </c>
+      <c r="E218" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>67</v>
+      </c>
+      <c r="B219" t="s">
+        <v>68</v>
+      </c>
+      <c r="C219" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" t="s">
+        <v>79</v>
+      </c>
+      <c r="E219" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>67</v>
+      </c>
+      <c r="B220" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" t="s">
+        <v>80</v>
+      </c>
+      <c r="E220" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" t="s">
+        <v>68</v>
+      </c>
+      <c r="C221" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" t="s">
+        <v>81</v>
+      </c>
+      <c r="E221" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>67</v>
+      </c>
+      <c r="B222" t="s">
+        <v>68</v>
+      </c>
+      <c r="C222" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>82</v>
+      </c>
+      <c r="E222" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" t="s">
+        <v>83</v>
+      </c>
+      <c r="E223" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>67</v>
+      </c>
+      <c r="B224" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s">
+        <v>84</v>
+      </c>
+      <c r="E224" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>67</v>
+      </c>
+      <c r="B225" t="s">
+        <v>68</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
         <v>85</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E225" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>67</v>
+      </c>
+      <c r="B226" t="s">
+        <v>68</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>86</v>
+      </c>
+      <c r="E226" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>67</v>
+      </c>
+      <c r="B227" t="s">
+        <v>87</v>
+      </c>
+      <c r="C227" t="s">
+        <v>45</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>67</v>
+      </c>
+      <c r="B228" t="s">
+        <v>87</v>
+      </c>
+      <c r="C228" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228" t="s">
+        <v>70</v>
+      </c>
+      <c r="E228" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>67</v>
+      </c>
+      <c r="B229" t="s">
+        <v>87</v>
+      </c>
+      <c r="C229" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" t="s">
+        <v>71</v>
+      </c>
+      <c r="E229" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>67</v>
+      </c>
+      <c r="B230" t="s">
+        <v>87</v>
+      </c>
+      <c r="C230" t="s">
+        <v>34</v>
+      </c>
+      <c r="D230" t="s">
+        <v>72</v>
+      </c>
+      <c r="E230" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>67</v>
+      </c>
+      <c r="B231" t="s">
+        <v>87</v>
+      </c>
+      <c r="C231" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" t="s">
+        <v>73</v>
+      </c>
+      <c r="E231" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>67</v>
+      </c>
+      <c r="B232" t="s">
+        <v>87</v>
+      </c>
+      <c r="C232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232" t="s">
+        <v>74</v>
+      </c>
+      <c r="E232" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>67</v>
+      </c>
+      <c r="B233" t="s">
+        <v>87</v>
+      </c>
+      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" t="s">
+        <v>75</v>
+      </c>
+      <c r="E233" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>67</v>
+      </c>
+      <c r="B234" t="s">
+        <v>87</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s">
+        <v>76</v>
+      </c>
+      <c r="E234" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>67</v>
+      </c>
+      <c r="B235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" t="s">
+        <v>22</v>
+      </c>
+      <c r="D235" t="s">
+        <v>77</v>
+      </c>
+      <c r="E235" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>67</v>
+      </c>
+      <c r="B236" t="s">
+        <v>87</v>
+      </c>
+      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="D236" t="s">
+        <v>78</v>
+      </c>
+      <c r="E236" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" t="s">
+        <v>79</v>
+      </c>
+      <c r="E237" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>67</v>
+      </c>
+      <c r="B238" t="s">
+        <v>87</v>
+      </c>
+      <c r="C238" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" t="s">
+        <v>80</v>
+      </c>
+      <c r="E238" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>67</v>
+      </c>
+      <c r="B239" t="s">
+        <v>87</v>
+      </c>
+      <c r="C239" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" t="s">
+        <v>81</v>
+      </c>
+      <c r="E239" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>67</v>
+      </c>
+      <c r="B240" t="s">
+        <v>87</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
+        <v>82</v>
+      </c>
+      <c r="E240" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>67</v>
+      </c>
+      <c r="B241" t="s">
+        <v>87</v>
+      </c>
+      <c r="C241" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" t="s">
+        <v>87</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>84</v>
+      </c>
+      <c r="E242" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>67</v>
+      </c>
+      <c r="B243" t="s">
+        <v>87</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>85</v>
+      </c>
+      <c r="E243" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>67</v>
+      </c>
+      <c r="B244" t="s">
+        <v>87</v>
+      </c>
+      <c r="C244" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>86</v>
+      </c>
+      <c r="E244" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>67</v>
+      </c>
+      <c r="B245" t="s">
+        <v>88</v>
+      </c>
+      <c r="C245" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" t="s">
+        <v>88</v>
+      </c>
+      <c r="C246" t="s">
+        <v>38</v>
+      </c>
+      <c r="D246" t="s">
+        <v>70</v>
+      </c>
+      <c r="E246" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>67</v>
+      </c>
+      <c r="B247" t="s">
+        <v>88</v>
+      </c>
+      <c r="C247" t="s">
+        <v>34</v>
+      </c>
+      <c r="D247" t="s">
+        <v>71</v>
+      </c>
+      <c r="E247" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" t="s">
+        <v>88</v>
+      </c>
+      <c r="C248" t="s">
+        <v>34</v>
+      </c>
+      <c r="D248" t="s">
+        <v>72</v>
+      </c>
+      <c r="E248" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249" t="s">
+        <v>88</v>
+      </c>
+      <c r="C249" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" t="s">
+        <v>73</v>
+      </c>
+      <c r="E249" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>67</v>
+      </c>
+      <c r="B250" t="s">
+        <v>88</v>
+      </c>
+      <c r="C250" t="s">
+        <v>27</v>
+      </c>
+      <c r="D250" t="s">
+        <v>74</v>
+      </c>
+      <c r="E250" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" t="s">
+        <v>88</v>
+      </c>
+      <c r="C251" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>75</v>
+      </c>
+      <c r="E251" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" t="s">
+        <v>88</v>
+      </c>
+      <c r="C252" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" t="s">
+        <v>76</v>
+      </c>
+      <c r="E252" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" t="s">
+        <v>88</v>
+      </c>
+      <c r="C253" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" t="s">
+        <v>77</v>
+      </c>
+      <c r="E253" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" t="s">
+        <v>78</v>
+      </c>
+      <c r="E254" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" t="s">
+        <v>88</v>
+      </c>
+      <c r="C255" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" t="s">
+        <v>79</v>
+      </c>
+      <c r="E255" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" t="s">
+        <v>88</v>
+      </c>
+      <c r="C256" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" t="s">
+        <v>80</v>
+      </c>
+      <c r="E256" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>67</v>
+      </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" t="s">
+        <v>81</v>
+      </c>
+      <c r="E257" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" t="s">
+        <v>88</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>82</v>
+      </c>
+      <c r="E258" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>67</v>
+      </c>
+      <c r="B259" t="s">
+        <v>88</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>83</v>
+      </c>
+      <c r="E259" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>67</v>
+      </c>
+      <c r="B260" t="s">
+        <v>88</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>84</v>
+      </c>
+      <c r="E260" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>67</v>
+      </c>
+      <c r="B261" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>85</v>
+      </c>
+      <c r="E261" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>67</v>
+      </c>
+      <c r="B262" t="s">
+        <v>88</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>86</v>
+      </c>
+      <c r="E262" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>67</v>
+      </c>
+      <c r="B263" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" t="s">
+        <v>45</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B264" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264" t="s">
+        <v>38</v>
+      </c>
+      <c r="D264" t="s">
+        <v>70</v>
+      </c>
+      <c r="E264" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>67</v>
+      </c>
+      <c r="B265" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" t="s">
+        <v>34</v>
+      </c>
+      <c r="D265" t="s">
+        <v>71</v>
+      </c>
+      <c r="E265" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>67</v>
+      </c>
+      <c r="B266" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" t="s">
+        <v>34</v>
+      </c>
+      <c r="D266" t="s">
+        <v>72</v>
+      </c>
+      <c r="E266" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>67</v>
+      </c>
+      <c r="B267" t="s">
+        <v>89</v>
+      </c>
+      <c r="C267" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" t="s">
+        <v>73</v>
+      </c>
+      <c r="E267" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>67</v>
+      </c>
+      <c r="B268" t="s">
+        <v>89</v>
+      </c>
+      <c r="C268" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" t="s">
+        <v>74</v>
+      </c>
+      <c r="E268" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>67</v>
+      </c>
+      <c r="B269" t="s">
+        <v>89</v>
+      </c>
+      <c r="C269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" t="s">
+        <v>75</v>
+      </c>
+      <c r="E269" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>67</v>
+      </c>
+      <c r="B270" t="s">
+        <v>89</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" t="s">
+        <v>76</v>
+      </c>
+      <c r="E270" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>67</v>
+      </c>
+      <c r="B271" t="s">
+        <v>89</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" t="s">
+        <v>77</v>
+      </c>
+      <c r="E271" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>67</v>
+      </c>
+      <c r="B272" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" t="s">
+        <v>78</v>
+      </c>
+      <c r="E272" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>67</v>
+      </c>
+      <c r="B273" t="s">
+        <v>89</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" t="s">
+        <v>79</v>
+      </c>
+      <c r="E273" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>67</v>
+      </c>
+      <c r="B274" t="s">
+        <v>89</v>
+      </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" t="s">
+        <v>80</v>
+      </c>
+      <c r="E274" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>67</v>
+      </c>
+      <c r="B275" t="s">
+        <v>89</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" t="s">
+        <v>81</v>
+      </c>
+      <c r="E275" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>67</v>
+      </c>
+      <c r="B276" t="s">
+        <v>89</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" t="s">
+        <v>82</v>
+      </c>
+      <c r="E276" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>67</v>
+      </c>
+      <c r="B277" t="s">
+        <v>89</v>
+      </c>
+      <c r="C277" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" t="s">
+        <v>83</v>
+      </c>
+      <c r="E277" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>67</v>
+      </c>
+      <c r="B278" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" t="s">
+        <v>84</v>
+      </c>
+      <c r="E278" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279" t="s">
+        <v>89</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>85</v>
+      </c>
+      <c r="E279" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>67</v>
+      </c>
+      <c r="B280" t="s">
+        <v>89</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>86</v>
+      </c>
+      <c r="E280" t="s">
         <v>47</v>
       </c>
     </row>
